--- a/data/income_statement/3digits/total/801_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/801_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>801-Private security activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>801-Private security activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2392993.7721</v>
@@ -959,34 +865,39 @@
         <v>3469632.12079</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4108455.20884</v>
+        <v>4113821.65307</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5020194.78342</v>
+        <v>5022628.849049999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6033629.41214</v>
+        <v>6042856.12217</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7199079.32759</v>
+        <v>7223840.4705</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9421082.258330001</v>
+        <v>9421082.641709998</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>11151347.30423</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10221422.72214</v>
+        <v>10236536.95528</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>11317973.19985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11376374.04567</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12417461.046</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2332634.42524</v>
@@ -998,16 +909,16 @@
         <v>3377476.22592</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3972063.57721</v>
+        <v>3977430.02144</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4843827.18081</v>
+        <v>4846261.24644</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5846112.34488</v>
+        <v>5855339.054909999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6988474.13164</v>
+        <v>7013089.473879999</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>9221067.040999999</v>
@@ -1016,16 +927,21 @@
         <v>10884129.66696</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9968057.84309</v>
+        <v>9983168.64521</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11022611.417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11080585.05831</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>12093531.803</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>30751.40165</v>
@@ -1034,7 +950,7 @@
         <v>37087.26236</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>46938.84093</v>
+        <v>46938.84093000001</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>65495.11833</v>
@@ -1046,7 +962,7 @@
         <v>97092.33532</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>79337.66861000001</v>
+        <v>79410.48173000001</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>19735.22689</v>
@@ -1058,13 +974,18 @@
         <v>51940.86513</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>65041.16078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>65043.66078</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>74299.69500000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>29607.94521</v>
@@ -1073,7 +994,7 @@
         <v>40211.56828</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>45217.05394</v>
+        <v>45217.05394000001</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>70896.51329999999</v>
@@ -1085,37 +1006,42 @@
         <v>90424.73194</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>131267.52734</v>
+        <v>131340.51489</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>180279.99044</v>
+        <v>180280.37382</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>242030.52478</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>201424.01392</v>
+        <v>201427.44494</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>230320.62207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>230745.32658</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>249629.548</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>3530.30521</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>6612.02602</v>
+        <v>6612.026019999999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>4674.39907</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>5977.33294</v>
+        <v>5977.332939999999</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>5401.717830000001</v>
@@ -1124,7 +1050,7 @@
         <v>15022.34626</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>13235.6754</v>
+        <v>13235.98664</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>33280.95202</v>
@@ -1133,16 +1059,21 @@
         <v>44847.69194</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>61541.79499000001</v>
+        <v>61550.77800000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>78015.34367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>78124.64872</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>119406.205</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2990.21197</v>
@@ -1175,13 +1106,18 @@
         <v>54469.49238</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>70616.30662999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>70725.61167999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>109398.231</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>240.4324</v>
@@ -1205,22 +1141,27 @@
         <v>2290.66956</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3279.378920000001</v>
+        <v>3279.37892</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>4843.248820000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4959.43245</v>
+        <v>4968.41546</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>6806.70343</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>9613.307000000001</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>299.66084</v>
@@ -1229,7 +1170,7 @@
         <v>2411.0537</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>665.07818</v>
+        <v>665.0781800000001</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>132.5063</v>
@@ -1241,7 +1182,7 @@
         <v>401.40408</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>550.8754099999999</v>
+        <v>551.18665</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>473.9565899999999</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>592.33361</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>394.667</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2389463.46689</v>
@@ -1271,34 +1217,39 @@
         <v>3464957.72172</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4102477.875899999</v>
+        <v>4107844.320129999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5014793.06559</v>
+        <v>5017227.13122</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6018607.06588</v>
+        <v>6027833.775909998</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7185843.652190001</v>
+        <v>7210604.48386</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>9387801.30631</v>
+        <v>9387801.689690001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>11106499.61229</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10159880.92715</v>
+        <v>10174986.17728</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11239957.85618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11298249.39695</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>12298054.841</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1995552.17329</v>
@@ -1307,37 +1258,42 @@
         <v>2442383.75156</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2963429.227210001</v>
+        <v>2963429.22721</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3479844.98646</v>
+        <v>3484874.659109999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4320663.97851</v>
+        <v>4323074.91778</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5242530.8477</v>
+        <v>5250698.9363</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6367651.60225</v>
+        <v>6389944.31525</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8394185.94538</v>
+        <v>8394205.115590001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>10022943.77323</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>9071186.867959999</v>
+        <v>9084835.428479999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10042023.03301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10100618.85569</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>10950765.452</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2386.83206</v>
@@ -1370,34 +1326,39 @@
         <v>10528.78889</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>15518.51667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16140.33908</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>55340.769</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>31918.57376</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>33635.54163</v>
+        <v>33635.54162999999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>76159.06124000001</v>
+        <v>76159.06124</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>47550.0243</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>86816.02142</v>
+        <v>86816.76541999998</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>55925.01731</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>93696.36173999999</v>
+        <v>94520.73022999999</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>95341.33716</v>
@@ -1409,13 +1370,18 @@
         <v>175047.14819</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>176890.44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>179071.21814</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>80044.891</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1960703.70246</v>
@@ -1427,34 +1393,39 @@
         <v>2884565.81782</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3406997.282</v>
+        <v>3412026.95465</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4214221.382569999</v>
+        <v>4216631.57784</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5128586.87717</v>
+        <v>5136754.965770001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6228004.720540001</v>
+        <v>6249473.065050001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>8284811.13413</v>
+        <v>8284830.30434</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>9846549.728370002</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8879172.451850001</v>
+        <v>8892821.012370002</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>9844574.119860001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>9900367.34199</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>10813061.296</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>543.06501</v>
@@ -1487,13 +1458,18 @@
         <v>6438.47903</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5039.956480000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>5039.95648</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2318.496</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>393911.2936</v>
@@ -1505,73 +1481,83 @@
         <v>501528.49451</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>622632.8894400001</v>
+        <v>622969.66102</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>694129.0870800001</v>
+        <v>694152.21344</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>776076.21818</v>
+        <v>777134.83961</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>818192.0499400001</v>
+        <v>820660.1686100001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>993615.3609300001</v>
+        <v>993596.5740999999</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1083555.83906</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1088694.05919</v>
+        <v>1090150.7488</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1197934.82317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1197630.54126</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1347289.389</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>293500.44744</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>320276.8175</v>
+        <v>320276.8175000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>399249.28769</v>
+        <v>399249.2876899999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>519958.48133</v>
+        <v>520411.63112</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>555545.01521</v>
+        <v>555545.1152100001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>601482.9851</v>
+        <v>602663.71474</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>655793.6239400001</v>
+        <v>658166.05035</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>825127.63517</v>
+        <v>825181.05201</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>929066.19035</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>924999.11427</v>
+        <v>926446.6276499999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1028857.02292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1035779.12878</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1100494.586</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>58.37430000000001</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>794.9332800000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>460.142</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>17499.83876</v>
@@ -1625,13 +1616,13 @@
         <v>59530.93107999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>43718.72818</v>
+        <v>43718.72818000001</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>42491.67358</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>41771.61087999999</v>
+        <v>41799.54193</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>54033.76037</v>
@@ -1640,16 +1631,21 @@
         <v>69683.00992</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>77487.57676000001</v>
+        <v>77764.03423</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>88771.08747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>88902.77441999999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>89058.192</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>275942.23438</v>
@@ -1661,34 +1657,39 @@
         <v>372888.10711</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>460239.40897</v>
+        <v>460692.55876</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>511788.53744</v>
+        <v>511788.63744</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>558592.8623399999</v>
+        <v>559773.59198</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>613848.99012</v>
+        <v>616193.48548</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>770747.5525</v>
+        <v>770800.9693400001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>859261.63873</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>845757.3214199999</v>
+        <v>846928.37733</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>939291.0021699999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>946081.4210799999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1010976.252</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>100410.84616</v>
@@ -1700,34 +1701,39 @@
         <v>102279.20682</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>102674.40811</v>
+        <v>102558.0299</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>138584.07187</v>
+        <v>138607.09823</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>174593.23308</v>
+        <v>174471.12487</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>162398.426</v>
+        <v>162494.11826</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>168487.72576</v>
+        <v>168415.52209</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>154489.64871</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>163694.94492</v>
+        <v>163704.12115</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>169077.80025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>161851.41248</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>246794.803</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>23006.37228</v>
@@ -1748,25 +1754,30 @@
         <v>40323.98475</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>46957.20528</v>
+        <v>47034.71748</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>68036.51407</v>
+        <v>68040.00999000001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>84784.57072</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>146009.47326</v>
+        <v>146039.53604</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>141362.77745</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>142234.90809</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>157971.385</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3209.34174</v>
@@ -1775,7 +1786,7 @@
         <v>2910.0632</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>3406.237209999999</v>
+        <v>3406.23721</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>3434.28688</v>
@@ -1793,7 +1804,7 @@
         <v>3369.24698</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>922.16732</v>
+        <v>922.1673199999999</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>257.34125</v>
@@ -1801,17 +1812,22 @@
       <c r="M26" s="48" t="n">
         <v>1700</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>8.183999999999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1166.41054</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>787.2488300000001</v>
+        <v>787.24883</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>1666.41576</v>
@@ -1840,32 +1856,37 @@
       <c r="M27" s="48" t="n">
         <v>266.72308</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>557.563</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>4392.36784</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4572.90694</v>
+        <v>4572.906940000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>5565.88581</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>9290.18312</v>
+        <v>9290.183120000002</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>7447.376799999999</v>
+        <v>7447.3768</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>7134.710430000001</v>
+        <v>7134.71043</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>13690.54785</v>
+        <v>13757.62797</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>15516.45223</v>
@@ -1877,13 +1898,18 @@
         <v>41502.33882</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>61582.95876</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>61811.91436</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>45140.471</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.51763</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>43.83072</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>28.804</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1511.93886</v>
@@ -1955,13 +1986,18 @@
         <v>5630.894939999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8574.69054</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>8574.69154</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>7542.804</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>228.60406</v>
@@ -1982,10 +2018,10 @@
         <v>296.32935</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>511.4668999999999</v>
+        <v>512.4959699999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>700.9558600000001</v>
+        <v>700.95586</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1779.48385</v>
@@ -1994,19 +2030,24 @@
         <v>1241.37033</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>909.13384</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>909.1338400000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1551.119</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>3427.85096</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4684.064060000001</v>
+        <v>4684.06406</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>5246.12165</v>
@@ -2015,7 +2056,7 @@
         <v>7797.395530000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>6087.24917</v>
+        <v>6087.249169999999</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>7663.260339999999</v>
@@ -2024,22 +2065,27 @@
         <v>9141.3279</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>11985.78232</v>
+        <v>11989.27824</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>15422.16621</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>52766.89282000001</v>
+        <v>52766.89282</v>
       </c>
       <c r="M32" s="48" t="n">
         <v>28702.46778</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>57769.767</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>16.53105</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.26022</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>91.32899999999999</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>9064.08043</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>8345.96053</v>
+        <v>8345.960529999998</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>8686.23567</v>
@@ -2138,7 +2194,7 @@
         <v>17472.30069</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>10441.83677</v>
+        <v>10451.23978</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>27190.03368</v>
@@ -2147,16 +2203,21 @@
         <v>35411.43837</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>41196.22696</v>
+        <v>41226.28974</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>39566.44168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>40209.61572</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>45281.344</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>5124.81691</v>
@@ -2177,7 +2238,7 @@
         <v>16007.3389</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>19278.15908</v>
+        <v>19296.70264</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>12587.26334</v>
@@ -2186,16 +2247,21 @@
         <v>23447.51749</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>62456.54276999999</v>
+        <v>62456.54277</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>53397.29225999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>53402.26375</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>76027.17200000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>219.9303</v>
@@ -2228,13 +2294,18 @@
         <v>904.48146</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>838.11766</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>842.7233700000002</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1004.091</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2011.99824</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>25750.26417</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>33522.234</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>96.54652</v>
@@ -2291,7 +2367,7 @@
         <v>12.56516</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>915.4251</v>
+        <v>915.4250999999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>170.54662</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>33.74464</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1387.40364</v>
@@ -2324,7 +2405,7 @@
         <v>2725.95186</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>6996.00399</v>
+        <v>6996.003989999999</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>2820.20616</v>
@@ -2333,7 +2414,7 @@
         <v>6488.36088</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8666.446890000001</v>
+        <v>8677.330449999999</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>6572.43506</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>19060.15344</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>31487.433</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>15.41938</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>6.16774</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1387.35109</v>
@@ -2447,10 +2543,10 @@
         <v>1226.88136</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4915.95571</v>
+        <v>4915.955710000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3882.97915</v>
+        <v>3890.63915</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>3491.30155</v>
@@ -2462,13 +2558,18 @@
         <v>5167.902349999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>7715.01235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>7715.37813</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>9987.164000000001</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>19272.06658</v>
@@ -2486,28 +2587,33 @@
         <v>30266.53946</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>31577.48443</v>
+        <v>31584.44625</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>44827.41849999999</v>
+        <v>44895.50495</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>57685.25829999999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>57686.45639999999</v>
+        <v>57686.4564</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>93668.17970000001</v>
+        <v>93707.35137999999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>111817.49543</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>111885.52102</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>87405.54399999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>19000.77214</v>
@@ -2525,28 +2631,33 @@
         <v>29642.36834</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>30679.37274</v>
+        <v>30686.33456</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>43755.47962000001</v>
+        <v>43823.56607</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>56330.17085</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>56773.70711</v>
+        <v>56773.70710999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>92362.24918000001</v>
+        <v>92401.42086</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>111028.47435</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>111096.49994</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>87065.08199999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>271.29444</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>789.02108</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>340.462</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>99020.33494999999</v>
+        <v>99020.33495</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>92229.98654000001</v>
+        <v>92229.98654</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>99806.13798</v>
+        <v>99806.13797999998</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>96665.96561999999</v>
+        <v>96549.58740999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>132173.37958</v>
+        <v>132196.40594</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>167332.3945</v>
+        <v>167203.32447</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>145250.0537</v>
+        <v>145336.62815</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>166251.71819</v>
+        <v>166183.01044</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>158140.24554</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>153579.69571</v>
+        <v>153579.76304</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>145225.79001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>138798.5358</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>241333.472</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>11046.8768</v>
@@ -2636,34 +2757,39 @@
         <v>26695.96831</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>16188.63491</v>
+        <v>16314.80207</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>21846.39731</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>34560.23319000001</v>
+        <v>34560.23326000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>28179.51272</v>
+        <v>28259.5494</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>51790.58597</v>
+        <v>51790.78597</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>57853.08023000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>73132.80603000001</v>
+        <v>73177.55435999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>76537.04838000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>77436.284</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>90489.68700000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>119.31376</v>
@@ -2696,13 +2822,18 @@
         <v>1207.25403</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1061.39736</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1370.42437</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>347.61</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>10927.56304</v>
@@ -2714,34 +2845,39 @@
         <v>26437.42181</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>16039.78196</v>
+        <v>16165.94912</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>21638.84427</v>
+        <v>21638.84427000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>34079.55994000001</v>
+        <v>34079.56001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>27883.32094</v>
+        <v>27963.35762</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>51602.75302</v>
+        <v>51602.95302</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>56275.15371000001</v>
+        <v>56275.15371</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>71925.552</v>
+        <v>71970.30033</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>75475.65102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>76065.85963000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>90142.077</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>17613.45563</v>
@@ -2759,28 +2895,33 @@
         <v>26934.97505</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>65829.74135</v>
+        <v>65832.97091</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>38382.54503</v>
+        <v>38461.69106</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>96035.65144999999</v>
+        <v>96035.65146000001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>62530.04557</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>82390.69765</v>
+        <v>82437.01950999998</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>129752.74123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>130023.67117</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>97352.72</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>294.46465</v>
@@ -2789,7 +2930,7 @@
         <v>84.15945000000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>78.40560000000001</v>
+        <v>78.40559999999999</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>139.13867</v>
@@ -2798,7 +2939,7 @@
         <v>19.52575</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>54.45494</v>
+        <v>54.45493999999999</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>73.51308999999999</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>69.16784</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>160.548</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>491.12336</v>
@@ -2837,10 +2983,10 @@
         <v>2854.21837</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3239.578019999999</v>
+        <v>3239.75992</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1192.05748</v>
+        <v>1192.16988</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>2003.25187</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>11176.77613</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>14705.374</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>16827.86762</v>
@@ -2873,70 +3024,80 @@
         <v>24838.23302</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>24061.23092999999</v>
+        <v>24061.23093</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>62535.70839</v>
+        <v>62538.75605</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>37116.97446</v>
+        <v>37196.00809</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>94027.36140000001</v>
+        <v>94027.36141</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>59058.43345999999</v>
+        <v>59058.43346</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>80634.17456</v>
+        <v>80680.49642000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>118506.79726</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>118777.7272</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>82486.798</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>92453.75612000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>85198.55551000001</v>
+        <v>85198.55550999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>4883.699189999998</v>
+        <v>4883.699189999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>86894.97806000001</v>
+        <v>86904.76701</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>127084.80184</v>
+        <v>127107.8282</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>136062.88634</v>
+        <v>135930.58682</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>135047.02139</v>
+        <v>135134.48649</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>122006.65271</v>
+        <v>121938.14495</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>153463.2802</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>144321.80409</v>
+        <v>144320.29789</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>92010.09716</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>86211.14863</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>234470.439</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>19996.02081</v>
@@ -2948,70 +3109,78 @@
         <v>22842.95258</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25495.98981</v>
+        <v>25497.9476</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>30146.10354</v>
+        <v>30150.78474</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>39382.4209</v>
+        <v>39386.94616</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>41276.04325</v>
+        <v>41337.61603</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>51245.69562999999</v>
+        <v>51245.69563000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>52961.63576999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>66648.46545</v>
+        <v>66813.44492000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>68393.41418000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>69099.09108</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>94179.00599999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>72457.73531</v>
+        <v>72457.73530999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>64804.43177000001</v>
+        <v>64804.43177</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>-17959.25339</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>61398.98825</v>
+        <v>61406.81941</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>96938.6983</v>
+        <v>96957.04346000002</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>96680.46544000001</v>
+        <v>96543.64066</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>93770.97813999999</v>
+        <v>93796.87046000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>70760.95707999999</v>
+        <v>70692.44932000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>100501.64443</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>77673.33864</v>
+        <v>77506.85296999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>23616.68298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>17112.05755000002</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>140291.433</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1501</v>
@@ -3038,34 +3210,37 @@
         <v>1589</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1795</v>
+        <v>1800</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1877</v>
+        <v>1894</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1897</v>
+        <v>1903</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2013</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1969</v>
+        <v>2019</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1949</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>